--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,29 +682,29 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.2265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.2265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.2265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -778,7 +778,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -796,7 +796,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:20">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -814,7 +814,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:20">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -832,7 +832,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:20">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -850,7 +850,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:20">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -868,7 +868,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:20">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -886,7 +886,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:20">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -904,7 +904,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:20">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -922,7 +922,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:20">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -940,7 +940,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:20">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -958,7 +958,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:20">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -976,7 +976,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:20">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -994,7 +994,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:20">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1012,7 +1012,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:20">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1030,7 +1030,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1048,7 +1048,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:17">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1066,7 +1066,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:17">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1084,7 +1084,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:17">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1102,7 +1102,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:17">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1120,7 +1120,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:17">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1138,7 +1138,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:17">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1156,7 +1156,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:17">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1174,7 +1174,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:17">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1192,7 +1192,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:17">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1210,7 +1210,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1228,7 +1228,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:17">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1246,7 +1246,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:17">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1264,7 +1264,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1282,7 +1282,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE1A5334-7485-4ECD-BD8C-0CF29D1590B5}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1F5739-2901-46FC-9657-844DAF884D41}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +198,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -340,6 +353,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,39 +700,39 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.40625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.40625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -720,7 +741,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -760,13 +781,13 @@
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A2" s="16"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -778,13 +799,13 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A3" s="16"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -796,13 +817,13 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A4" s="16"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -814,13 +835,13 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A5" s="16"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -832,13 +853,13 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A6" s="16"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -850,13 +871,13 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A7" s="16"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -868,13 +889,13 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A8" s="16"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -886,13 +907,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A9" s="16"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -904,13 +925,13 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A10" s="16"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -922,13 +943,13 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A11" s="16"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -940,13 +961,13 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A12" s="16"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -958,13 +979,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A13" s="16"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -976,13 +997,13 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A14" s="16"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -994,13 +1015,13 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A15" s="16"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1012,13 +1033,13 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.75">
+      <c r="A16" s="16"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1030,13 +1051,13 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A17" s="16"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1048,13 +1069,13 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A18" s="16"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1066,13 +1087,13 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A19" s="16"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1084,13 +1105,13 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A20" s="16"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1102,13 +1123,13 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A21" s="16"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1120,13 +1141,13 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A22" s="16"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1138,13 +1159,13 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A23" s="16"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1156,13 +1177,13 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A24" s="16"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1174,13 +1195,13 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A25" s="16"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1192,13 +1213,13 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A26" s="16"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1210,13 +1231,13 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A27" s="16"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1228,13 +1249,13 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A28" s="16"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1246,13 +1267,13 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A29" s="16"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1264,13 +1285,13 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A30" s="16"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1282,13 +1303,13 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A31" s="16"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1F5739-2901-46FC-9657-844DAF884D41}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC0DE84-82BC-417C-A302-2F24B82D41ED}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
@@ -102,49 +102,49 @@
     <t>Admin Pcode</t>
   </si>
   <si>
-    <t>Children (6-17)</t>
-  </si>
-  <si>
-    <t>Girls  (6-17)</t>
-  </si>
-  <si>
-    <t>Boys  (6-17)</t>
-  </si>
-  <si>
-    <t>Host -- Children (6-17)</t>
-  </si>
-  <si>
-    <t>Host -- Girls  (6-17)</t>
-  </si>
-  <si>
-    <t>Host -- Boys  (6-17)</t>
-  </si>
-  <si>
-    <t>IDP -- Children (6-17)</t>
-  </si>
-  <si>
-    <t>IDP -- Girls  (6-17)</t>
-  </si>
-  <si>
-    <t>IDP -- Boys  (6-17)</t>
-  </si>
-  <si>
-    <t>Returnees -- Children (6-17)</t>
-  </si>
-  <si>
-    <t>Returnees -- Girls  (6-17)</t>
-  </si>
-  <si>
-    <t>Returnees -- Boys  (6-17)</t>
-  </si>
-  <si>
-    <t>Refugees -- Children (6-17)</t>
-  </si>
-  <si>
-    <t>Refugees -- Girls  (6-17)</t>
-  </si>
-  <si>
-    <t>Refugees -- Boys  (6-17)</t>
+    <t>Children (5-17)</t>
+  </si>
+  <si>
+    <t>Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>Host -- Children (5-17)</t>
+  </si>
+  <si>
+    <t>Host -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>Host -- Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>IDP -- Children (5-17)</t>
+  </si>
+  <si>
+    <t>IDP -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>IDP -- Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees -- Children (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees -- Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees -- Children (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees -- Boys  (5-17)</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC0DE84-82BC-417C-A302-2F24B82D41ED}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B669CEC-EDF6-47CD-A1B1-466A4DC62FC2}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
@@ -102,49 +102,49 @@
     <t>Admin Pcode</t>
   </si>
   <si>
-    <t>Children (5-17)</t>
-  </si>
-  <si>
-    <t>Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>Host -- Children (5-17)</t>
-  </si>
-  <si>
-    <t>Host -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>Host -- Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>IDP -- Children (5-17)</t>
-  </si>
-  <si>
-    <t>IDP -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>IDP -- Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees -- Children (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees -- Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>Refugees -- Children (5-17)</t>
-  </si>
-  <si>
-    <t>Refugees -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>Refugees -- Boys  (5-17)</t>
+    <t>IDP/PDI -- Children (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees/Refugiee -- Children (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees/Refugiee -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees/Refugiee -- Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees/Retournés -- Children (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees/Retournés -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees/Retournés -- Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>IDP/PDI -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>IDP/PDI -- Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>Host/Hôte-- Children (5-17)</t>
+  </si>
+  <si>
+    <t>Host/Hôte -- Girls  (5-17)</t>
+  </si>
+  <si>
+    <t>Host/Hôte -- Boys  (5-17)</t>
+  </si>
+  <si>
+    <t>Children/Enfants (5-17)</t>
+  </si>
+  <si>
+    <t>Girls/Filles  (5-17)</t>
+  </si>
+  <si>
+    <t>Boys/Garcons  (5-17)</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -733,25 +733,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>9</v>
@@ -760,22 +760,22 @@
         <v>10</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B669CEC-EDF6-47CD-A1B1-466A4DC62FC2}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2993030-E643-4417-AF67-2FE2D3DBC673}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Admin</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Boys/Garcons  (5-17)</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +262,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -316,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -361,6 +370,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA56C02-61B5-41C1-B66B-44B5B6878CC3}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -777,7 +789,9 @@
       <c r="Q1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="14"/>
+      <c r="R1" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" s="14"/>
       <c r="T1" s="14"/>
     </row>
@@ -798,6 +812,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A3" s="16"/>
@@ -816,6 +831,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A4" s="16"/>
@@ -834,6 +850,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A5" s="16"/>
@@ -852,6 +869,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A6" s="16"/>
@@ -870,6 +888,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A7" s="16"/>
@@ -888,6 +907,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A8" s="16"/>
@@ -906,6 +926,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A9" s="16"/>
@@ -924,6 +945,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A10" s="16"/>
@@ -942,6 +964,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A11" s="16"/>
@@ -960,6 +983,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A12" s="16"/>
@@ -978,6 +1002,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A13" s="16"/>
@@ -996,6 +1021,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A14" s="16"/>
@@ -1014,6 +1040,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A15" s="16"/>
@@ -1032,6 +1059,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A16" s="16"/>
@@ -1050,8 +1078,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A17" s="16"/>
       <c r="B17" s="3"/>
       <c r="C17" s="16"/>
@@ -1068,8 +1097,9 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A18" s="16"/>
       <c r="B18" s="3"/>
       <c r="C18" s="16"/>
@@ -1086,8 +1116,9 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A19" s="16"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16"/>
@@ -1104,8 +1135,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A20" s="16"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16"/>
@@ -1122,8 +1154,9 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A21" s="16"/>
       <c r="B21" s="3"/>
       <c r="C21" s="16"/>
@@ -1140,8 +1173,9 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A22" s="16"/>
       <c r="B22" s="3"/>
       <c r="C22" s="16"/>
@@ -1158,8 +1192,9 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A23" s="16"/>
       <c r="B23" s="3"/>
       <c r="C23" s="16"/>
@@ -1176,8 +1211,9 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A24" s="16"/>
       <c r="B24" s="3"/>
       <c r="C24" s="16"/>
@@ -1194,8 +1230,9 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A25" s="16"/>
       <c r="B25" s="3"/>
       <c r="C25" s="16"/>
@@ -1212,8 +1249,9 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A26" s="16"/>
       <c r="B26" s="3"/>
       <c r="C26" s="16"/>
@@ -1230,8 +1268,9 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A27" s="16"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16"/>
@@ -1248,8 +1287,9 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A28" s="16"/>
       <c r="B28" s="3"/>
       <c r="C28" s="16"/>
@@ -1266,8 +1306,9 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A29" s="16"/>
       <c r="B29" s="3"/>
       <c r="C29" s="16"/>
@@ -1284,8 +1325,9 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A30" s="16"/>
       <c r="B30" s="3"/>
       <c r="C30" s="16"/>
@@ -1302,8 +1344,9 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A31" s="16"/>
       <c r="B31" s="3"/>
       <c r="C31" s="16"/>
@@ -1320,6 +1363,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA56C02-61B5-41C1-B66B-44B5B6878CC3}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2993030-E643-4417-AF67-2FE2D3DBC673}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6FF81B8-85CE-4C98-84D9-FCD998290C49}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="13380" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,52 +102,52 @@
     <t>Admin Pcode</t>
   </si>
   <si>
-    <t>IDP/PDI -- Children (5-17)</t>
-  </si>
-  <si>
-    <t>Refugees/Refugiee -- Children (5-17)</t>
-  </si>
-  <si>
-    <t>Refugees/Refugiee -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>Refugees/Refugiee -- Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees/Retournés -- Children (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees/Retournés -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees/Retournés -- Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>IDP/PDI -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>IDP/PDI -- Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>Host/Hôte-- Children (5-17)</t>
-  </si>
-  <si>
-    <t>Host/Hôte -- Girls  (5-17)</t>
-  </si>
-  <si>
-    <t>Host/Hôte -- Boys  (5-17)</t>
-  </si>
-  <si>
-    <t>Children/Enfants (5-17)</t>
-  </si>
-  <si>
-    <t>Girls/Filles  (5-17)</t>
-  </si>
-  <si>
-    <t>Boys/Garcons  (5-17)</t>
-  </si>
-  <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>IDP/PDI -- Children/Enfants (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees/Retournés -- Children/Enfants (5-17)</t>
+  </si>
+  <si>
+    <t>Host/Hôte -- Girls/Filles (5-17)</t>
+  </si>
+  <si>
+    <t>Host/Hôte -- Boys/Garcons (5-17)</t>
+  </si>
+  <si>
+    <t>IDP/PDI -- Girls/Filles (5-17)</t>
+  </si>
+  <si>
+    <t>IDP/PDI -- Boys/Garcons (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees/Retournés -- Girls/Filles (5-17)</t>
+  </si>
+  <si>
+    <t>Returnees/Retournés -- Boys/Garcons (5-17)</t>
+  </si>
+  <si>
+    <t>Host/Hôte -- Children/Enfants (5-17)</t>
+  </si>
+  <si>
+    <t>ToT -- Children/Enfants (5-17)</t>
+  </si>
+  <si>
+    <t>ToT -- Girls/Filles (5-17)</t>
+  </si>
+  <si>
+    <t>ToT -- Boys/Garcons (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees/Refugiees -- Children/Enfants (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees/Refugiees -- Girls/Filles (5-17)</t>
+  </si>
+  <si>
+    <t>Refugees/Refugiees -- Boys/Garcons (5-17)</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -345,19 +345,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -371,7 +362,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,17 +703,17 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="14" customWidth="1"/>
     <col min="2" max="2" width="11.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.40625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.40625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.40625" bestFit="1" customWidth="1"/>
@@ -738,70 +729,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A2" s="16"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="16"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="16"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -815,12 +806,12 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A3" s="16"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -834,12 +825,12 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A4" s="16"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -853,12 +844,12 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A5" s="16"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -872,12 +863,12 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A6" s="16"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -891,12 +882,12 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -910,12 +901,12 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A8" s="16"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -929,12 +920,12 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A9" s="16"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -948,12 +939,12 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A10" s="16"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -967,12 +958,12 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A11" s="16"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -986,12 +977,12 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A12" s="16"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1005,12 +996,12 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A13" s="16"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1024,12 +1015,12 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A14" s="16"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1043,12 +1034,12 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A15" s="16"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1062,12 +1053,12 @@
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.75">
-      <c r="A16" s="16"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="16"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1081,12 +1072,12 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1100,12 +1091,12 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A18" s="16"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1119,12 +1110,12 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A19" s="16"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1138,12 +1129,12 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1157,12 +1148,12 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A21" s="16"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1176,12 +1167,12 @@
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A22" s="16"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1195,12 +1186,12 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A23" s="16"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1214,12 +1205,12 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A24" s="16"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1233,12 +1224,12 @@
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A25" s="16"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1252,12 +1243,12 @@
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A26" s="16"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="16"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="16"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1271,12 +1262,12 @@
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A27" s="16"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1290,12 +1281,12 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A28" s="16"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="16"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="16"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1309,12 +1300,12 @@
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A29" s="16"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="16"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1328,12 +1319,12 @@
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A30" s="16"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="16"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="16"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1347,12 +1338,12 @@
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.75">
-      <c r="A31" s="16"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="16"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="16"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1366,6 +1357,10 @@
       <c r="R31" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:R121" name="pop value"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4C6140-CC68-4C67-84BA-ED7177D87566}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AE61E7-15E9-4966-B0BD-7B98F80E24B0}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="13380" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Admin</t>
   </si>
@@ -108,24 +108,6 @@
     <t>Returnees/Retournés -- Children/Enfants (5-17)</t>
   </si>
   <si>
-    <t>Host/Hôte -- Girls/Filles (5-17)</t>
-  </si>
-  <si>
-    <t>Host/Hôte -- Boys/Garcons (5-17)</t>
-  </si>
-  <si>
-    <t>IDP/PDI -- Girls/Filles (5-17)</t>
-  </si>
-  <si>
-    <t>IDP/PDI -- Boys/Garcons (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees/Retournés -- Girls/Filles (5-17)</t>
-  </si>
-  <si>
-    <t>Returnees/Retournés -- Boys/Garcons (5-17)</t>
-  </si>
-  <si>
     <t>Host/Hôte -- Children/Enfants (5-17)</t>
   </si>
   <si>
@@ -141,29 +123,23 @@
     <t>Refugees/Refugiees -- Children/Enfants (5-17)</t>
   </si>
   <si>
-    <t>Refugees/Refugiees -- Girls/Filles (5-17)</t>
-  </si>
-  <si>
-    <t>Refugees/Refugiees -- Boys/Garcons (5-17)</t>
-  </si>
-  <si>
     <t>5yo -- Girls/Filles</t>
   </si>
   <si>
     <t>5yo -- Boys/Garcons</t>
   </si>
   <si>
-    <t xml:space="preserve">5yo -- Children/Enfants  </t>
-  </si>
-  <si>
     <t>Other -- Children/Enfants (5-17)</t>
+  </si>
+  <si>
+    <t>5yo -- Children/Enfants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +167,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -220,33 +189,24 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +222,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -331,57 +285,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -390,29 +312,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -755,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA56C02-61B5-41C1-B66B-44B5B6878CC3}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -768,81 +680,53 @@
     <col min="3" max="6" width="11.26953125" style="3" customWidth="1"/>
     <col min="7" max="8" width="9.1796875" style="5" customWidth="1"/>
     <col min="9" max="9" width="17.453125" style="3"/>
-    <col min="10" max="11" width="9.76953125" style="15" customWidth="1"/>
-    <col min="13" max="14" width="9.86328125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="17.453125" style="1"/>
-    <col min="16" max="17" width="9.54296875" style="15" customWidth="1"/>
-    <col min="19" max="20" width="10.04296875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="12" customFormat="1" ht="39.35" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -852,19 +736,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="J2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -874,19 +750,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="17"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -896,19 +764,11 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="17"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -918,19 +778,11 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="17"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -940,19 +792,11 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="17"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -962,19 +806,11 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="17"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -984,19 +820,11 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="17"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1006,19 +834,11 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="17"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1028,19 +848,11 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="17"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1050,19 +862,11 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="17"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1072,19 +876,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="17"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1094,19 +890,11 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="17"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1116,19 +904,11 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="J14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="17"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1138,19 +918,11 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="J15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="17"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.75">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1160,19 +932,11 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="J16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="17"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1182,19 +946,11 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="J17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="17"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1204,19 +960,11 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="J18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="17"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1226,19 +974,11 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="J19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="17"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1248,19 +988,11 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="17"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1270,19 +1002,11 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="17"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -1292,19 +1016,11 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="J22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="17"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1314,19 +1030,11 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="J23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="17"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1336,19 +1044,11 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="J24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="17"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -1358,19 +1058,11 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="J25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="17"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -1380,19 +1072,11 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="J26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="17"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -1402,19 +1086,11 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="J27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="17"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -1424,19 +1100,11 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="J28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="17"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -1446,19 +1114,11 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="J29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="17"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -1468,19 +1128,11 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="J30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="17"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.75">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -1490,21 +1142,13 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="J31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="17"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A2:U121" name="pop value"/>
+    <protectedRange sqref="A2:M121" name="pop value"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8AE61E7-15E9-4966-B0BD-7B98F80E24B0}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD62B87E-22F5-4FFF-815F-9BD1832C86A0}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Admin</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Refugees/Refugiees -- Children/Enfants (5-17)</t>
   </si>
   <si>
-    <t>5yo -- Girls/Filles</t>
-  </si>
-  <si>
-    <t>5yo -- Boys/Garcons</t>
-  </si>
-  <si>
     <t>Other -- Children/Enfants (5-17)</t>
   </si>
   <si>
@@ -139,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +181,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -206,7 +193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +204,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -255,12 +236,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -290,20 +265,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -312,19 +282,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,488 +634,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA56C02-61B5-41C1-B66B-44B5B6878CC3}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.453125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.1328125" customWidth="1"/>
-    <col min="3" max="6" width="11.26953125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.1796875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="3"/>
-    <col min="11" max="11" width="17.453125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="3" customWidth="1"/>
+    <col min="3" max="6" width="11.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="3"/>
+    <col min="9" max="9" width="17.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>12</v>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A2:M121" name="pop value"/>
+    <protectedRange sqref="A2:K121" name="pop value"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD62B87E-22F5-4FFF-815F-9BD1832C86A0}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038CFCAD-F415-41FA-BFA3-7F667D7B5006}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ocha" sheetId="1" r:id="rId1"/>
+    <sheet name="scope-fix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Admin</t>
   </si>
@@ -127,13 +128,242 @@
   </si>
   <si>
     <t>5yo -- Children/Enfants</t>
+  </si>
+  <si>
+    <t>CH008001</t>
+  </si>
+  <si>
+    <t>CH001001</t>
+  </si>
+  <si>
+    <t>CH001</t>
+  </si>
+  <si>
+    <t>CH008002</t>
+  </si>
+  <si>
+    <t>CH001002</t>
+  </si>
+  <si>
+    <t>CH008</t>
+  </si>
+  <si>
+    <t>Do not remove the sheet. If there is no mismatch, the PiN calculation will use the admin list from the previous sheet, and the information in the 'scope-fix' sheet will not be used</t>
+  </si>
+  <si>
+    <t>Ne supprimez pas la feuille. S'il n'y a pas de décalage, le calcul du PiN utilisera la liste des admins de la feuille précédente, et les informations de la feuille 'scope-fix' ne seront pas utilisées.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unique list of admin codes at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one or more levels above OCHA's unit of analysis that are representative in the MSNA and present in the MSNA data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. ---- Liste unique de codes administratifs à un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ou plusieurs niveaux au-dessus de l'unité d'analyse d'OCHA qui sont représentatifs dans le MSNA et présents dans les données du MSNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List of admin-pcode where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSNA data is not representative at the unit of analysis of the HNO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(e.g., if your analysis is conducted at admin 3, but in some admin 3 units the data is only representative at admin 2 -&gt; include these admin 3 units) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>----</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Liste des codes admin où les données </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSNA ne sont pas représentatives à l'unité d'analyse de la HNO</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (par exemple, si votre analyse est effectuée à l'admin 3, mais que dans certaines unités de l'admin 3 les données ne sont représentatives qu'à l'admin 2 -&gt; inclure ces unités de l'admin 3).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List of admin-pcode where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSNA data is representative at the unit of analysis of the HNO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(e.g. if your analysis is conducted at admin 3, include the list of admin/pcode where the data is representative at admin 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ----  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Liste des codes admin où les données </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSNA sont représentatives à l'unité d'analyse de l'HNO</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (par exemple, si votre analyse est effectuée à l'admin 3, incluez la liste des codes admin où les données sont représentatives à l'admin 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +422,71 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +529,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -260,12 +565,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -294,6 +627,19 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA56C02-61B5-41C1-B66B-44B5B6878CC3}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -1053,4 +1399,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D4D79-A7A6-48C8-8509-FD3F2A049ECB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" customWidth="1"/>
+    <col min="2" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/Template_Population_figures.xlsx
+++ b/input/Template_Population_figures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/pin-calculation-app/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/PiN_app_dev/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="421" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EA4ACF5-4497-4B57-9D46-B6A9D7AC3532}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="8_{D63770E9-8D5C-4F2A-BD7D-98D3C6683B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE5EF5D-68D5-4EC5-941D-CB6A89F582AD}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
+    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{24D09A16-471A-4A7F-BD10-C475AB78837D}"/>
   </bookViews>
   <sheets>
     <sheet name="ocha" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ocha!$A$1:$M$141</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -348,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +460,21 @@
     <font>
       <i/>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -516,12 +531,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -544,12 +558,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -583,9 +613,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{71695770-2CA8-438C-96D1-ED3328163623}"/>
   </cellStyles>
@@ -991,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D4D79-A7A6-48C8-8509-FD3F2A049ECB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1016,22 +1048,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>